--- a/Dataset/ReportTruck500kg.xlsx
+++ b/Dataset/ReportTruck500kg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workstation\Dropbox\DataCenter\GHTK\GHTK_Reports\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68EF8F7-FC07-4F17-BB82-3979A7EAF1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583CB02-FA8B-492F-A51B-CABFE72F75A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{49012750-4E9D-46FD-A7E9-60FBD4561666}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Truck.15003!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Truck.15003!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>DateStamp</t>
   </si>
@@ -161,6 +159,9 @@
   </si>
   <si>
     <t>https://tinyurl.com/vnnlzt5</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -289,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,6 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,92 +683,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D82911F-2087-4E0E-8368-6263D3A2F27A}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43801</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
+        <f>A2+B2</f>
+        <v>43801.409722222219</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.40972222222222227</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" t="str">
+        <f>A1</f>
+        <v>DateStamp</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43801</v>
       </c>
       <c r="B3" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C37" si="0">A3+B3</f>
+        <v>43801.451388888891</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.48472222222222222</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>82</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>D3-SUM(G3:J3)</f>
+      <c r="G3">
+        <f>E3-SUM(H3:K3)</f>
         <v>82</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -776,260 +794,292 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43801</v>
       </c>
       <c r="B4" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
+        <f t="shared" si="0"/>
+        <v>43801.520833333336</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>111</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>29</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>84</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43801</v>
       </c>
       <c r="B5" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>43801.576388888891</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>162</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>109</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>43</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>13</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43801</v>
       </c>
       <c r="B6" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>43801.631944444445</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>214</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>134</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43801</v>
       </c>
       <c r="B7" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>43801.6875</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>87</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>58</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43802</v>
       </c>
       <c r="B8" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.409722222219</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43802</v>
       </c>
       <c r="B9" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.451388888891</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.46249999999999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>330</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>280</v>
       </c>
-      <c r="F9">
-        <f>D9-SUM(G9:J9)</f>
+      <c r="G9">
+        <f>E9-SUM(H9:K9)</f>
         <v>312</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43802</v>
       </c>
       <c r="B10" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.520833333336</v>
+      </c>
+      <c r="D10" s="6">
         <v>0.5229166666666667</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>38</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F10">
-        <f>D10-SUM(G10:J10)</f>
+      <c r="G10">
+        <f>E10-SUM(H10:K10)</f>
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43802</v>
       </c>
       <c r="B11" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.576388888891</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>79</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <f>D11-SUM(G11:J11)</f>
+      <c r="G11">
+        <f>E11-SUM(H11:K11)</f>
         <v>79</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1039,94 +1089,106 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43802</v>
       </c>
       <c r="B12" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.631944444445</v>
+      </c>
+      <c r="D12" s="6">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>197</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <f>D12-SUM(G12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>E12-SUM(H12:K12)</f>
         <v>151</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>43</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43802</v>
       </c>
       <c r="B13" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>43802.6875</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.68611111111111101</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>59</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="0">D13-SUM(G13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="1">E13-SUM(H13:K13)</f>
         <v>39</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>18</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43803</v>
       </c>
       <c r="B14" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.409722222219</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.40902777777777777</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1135,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1143,183 +1205,207 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43803</v>
       </c>
       <c r="B15" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.451388888891</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.45208333333333334</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>68</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>44</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>55</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>9</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43803</v>
       </c>
       <c r="B16" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.520833333336</v>
+      </c>
+      <c r="D16" s="6">
         <v>0.51597222222222217</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43803</v>
       </c>
       <c r="B17" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.576388888891</v>
+      </c>
+      <c r="D17" s="6">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>29</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>18</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43803</v>
       </c>
       <c r="B18" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.631944444445</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.63402777777777775</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>348</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>309</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>16</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>23</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43803</v>
       </c>
       <c r="B19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>43803.6875</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.6743055555555556</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43804</v>
       </c>
       <c r="B20" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.409722222219</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -1338,100 +1424,112 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43804</v>
       </c>
       <c r="B21" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.451388888891</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.45694444444444443</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>57</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>22</v>
       </c>
-      <c r="F21">
-        <f>D21-SUM(G21:J21)</f>
+      <c r="G21">
+        <f>E21-SUM(H21:K21)</f>
         <v>55</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43804</v>
       </c>
       <c r="B22" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.520833333336</v>
+      </c>
+      <c r="D22" s="6">
         <v>0.51597222222222217</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>43</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>24</v>
       </c>
-      <c r="F22">
-        <f>D22-SUM(G22:J22)</f>
+      <c r="G22">
+        <f>E22-SUM(H22:K22)</f>
         <v>38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43804</v>
       </c>
       <c r="B23" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.576388888891</v>
+      </c>
+      <c r="D23" s="6">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <f>D23-SUM(G23:J23)</f>
         <v>0</v>
       </c>
       <c r="G23">
+        <f>E23-SUM(H23:K23)</f>
         <v>0</v>
       </c>
       <c r="H23">
@@ -1443,307 +1541,343 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43804</v>
       </c>
       <c r="B24" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.631944444445</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>217</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
-        <f>D24-SUM(G24:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>E24-SUM(H24:K24)</f>
         <v>181</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>16</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>20</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43804</v>
       </c>
       <c r="B25" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="13">
+        <f t="shared" si="0"/>
+        <v>43804.6875</v>
+      </c>
+      <c r="D25" s="6">
         <v>0.68958333333333333</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>126</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
-        <f>D25-SUM(G25:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>E25-SUM(H25:K25)</f>
         <v>112</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43805</v>
       </c>
       <c r="B26" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.409722222219</v>
+      </c>
+      <c r="D26" s="6">
         <v>0.42083333333333334</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>51</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="F26">
-        <f>D26-G26-H26-I26</f>
+      <c r="G26">
+        <f>E26-H26-I26-J26</f>
         <v>41</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43805</v>
       </c>
       <c r="B27" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.451388888891</v>
+      </c>
+      <c r="D27" s="6">
         <v>0.45416666666666666</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="F27">
-        <f>D27-G27-H27-I27</f>
+      <c r="G27">
+        <f>E27-H27-I27-J27</f>
         <v>33</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>15</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43805</v>
       </c>
       <c r="B28" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.520833333336</v>
+      </c>
+      <c r="D28" s="6">
         <v>0.5180555555555556</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>130</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>19</v>
       </c>
-      <c r="F28">
-        <f>D28-G28-H28-I28</f>
+      <c r="G28">
+        <f>E28-H28-I28-J28</f>
         <v>114</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>13</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43805</v>
       </c>
       <c r="B29" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.576388888891</v>
+      </c>
+      <c r="D29" s="7">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>63</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
-        <f>D29-G29-H29-I29</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>E29-H29-I29-J29</f>
         <v>49</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>9</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43805</v>
       </c>
       <c r="B30" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.631944444445</v>
+      </c>
+      <c r="D30" s="6">
         <v>0.65555555555555556</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>206</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <f>D30-G30-H30-I30</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>E30-H30-I30-J30</f>
         <v>177</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>27</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43805</v>
       </c>
       <c r="B31" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="13">
+        <f t="shared" si="0"/>
+        <v>43805.6875</v>
+      </c>
+      <c r="D31" s="6">
         <v>0.68611111111111101</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>8</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43806</v>
       </c>
       <c r="B32" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.409722222219</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
@@ -1762,102 +1896,114 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43806</v>
       </c>
       <c r="B33" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.451388888891</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.45208333333333334</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>243</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f>32+21+19</f>
         <v>72</v>
       </c>
-      <c r="F33">
-        <f>D33-SUM(G33:J33)</f>
+      <c r="G33">
+        <f>E33-SUM(H33:K33)</f>
         <v>136</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>79</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>14</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>10</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>4</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43806</v>
       </c>
       <c r="B34" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.520833333336</v>
+      </c>
+      <c r="D34" s="6">
         <v>0.5131944444444444</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>23</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>9</v>
       </c>
-      <c r="F34">
-        <f>D34-SUM(G34:J34)</f>
+      <c r="G34">
+        <f>E34-SUM(H34:K34)</f>
         <v>11</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43806</v>
       </c>
       <c r="B35" s="2">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.576388888891</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <f>D35-SUM(G35:J35)</f>
         <v>0</v>
       </c>
       <c r="G35">
+        <f>E35-SUM(H35:K35)</f>
         <v>0</v>
       </c>
       <c r="H35">
@@ -1869,107 +2015,118 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43806</v>
       </c>
       <c r="B36" s="2">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.631944444445</v>
+      </c>
+      <c r="D36" s="6">
         <v>0.64444444444444449</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>212</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
-        <f>D36-SUM(G36:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>E36-SUM(H36:K36)</f>
         <v>112</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>80</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>6</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>14</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43806</v>
       </c>
       <c r="B37" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="13">
+        <f t="shared" si="0"/>
+        <v>43806.6875</v>
+      </c>
+      <c r="D37" s="6">
         <v>0.68194444444444446</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>81</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
-        <f>D37-SUM(G37:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>E37-SUM(H37:K37)</f>
         <v>50</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>17</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>10</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>3</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="3"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K37" xr:uid="{37A44E50-8447-4805-AEBC-B48393026DAA}">
-    <sortState ref="A2:K37">
+  <autoFilter ref="A1:L37" xr:uid="{37A44E50-8447-4805-AEBC-B48393026DAA}">
+    <sortState ref="A2:L37">
       <sortCondition ref="A1:A31"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1" xr:uid="{99B190C3-A21C-4408-AFC1-A798BF5501E8}"/>
-    <hyperlink ref="K22" r:id="rId2" xr:uid="{9C285480-F81F-4682-9604-00F4D315104D}"/>
-    <hyperlink ref="K26" r:id="rId3" xr:uid="{E9C41835-8BA2-4A5E-8AB4-2D43876466F9}"/>
-    <hyperlink ref="K27" r:id="rId4" xr:uid="{8A8F3646-6287-423E-A3D8-DBD5BE36AF9B}"/>
-    <hyperlink ref="K29" r:id="rId5" xr:uid="{6587EB35-C376-4242-93BB-6A8895FEFA35}"/>
-    <hyperlink ref="K31" r:id="rId6" xr:uid="{395F8615-662F-4E62-A339-941AC787E526}"/>
-    <hyperlink ref="K36" r:id="rId7" xr:uid="{7B3AC151-AEB6-430F-81F8-8B3779EEB22C}"/>
-    <hyperlink ref="K37" r:id="rId8" xr:uid="{64B7D00B-F86A-490B-A9E6-E4BA1A4AE92A}"/>
-    <hyperlink ref="K33" r:id="rId9" xr:uid="{63BAFD34-ACFF-4855-800B-960ED0DAA834}"/>
-    <hyperlink ref="K9" r:id="rId10" xr:uid="{3D17522C-0289-422B-8C2D-EA5F7600C11F}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{6A18A58A-F873-4649-8EA0-9FA2FD1C9ADC}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{9FC9F0F7-1412-4727-8053-976750794FF2}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{81CEF689-B9BA-4E22-B50E-2EA9745D54F6}"/>
-    <hyperlink ref="K4" r:id="rId14" xr:uid="{F776F22F-D34C-48E7-A0AB-A7FBFC43B69F}"/>
-    <hyperlink ref="K5" r:id="rId15" xr:uid="{2EC55328-0FE4-4D08-883D-55227F134B8E}"/>
-    <hyperlink ref="K7" r:id="rId16" xr:uid="{77324ED2-F10D-4A3B-821F-1AE5B1428A74}"/>
-    <hyperlink ref="K6" r:id="rId17" xr:uid="{2754A60A-969C-47CF-A16F-129F4059AC08}"/>
+    <hyperlink ref="L21" r:id="rId1" xr:uid="{99B190C3-A21C-4408-AFC1-A798BF5501E8}"/>
+    <hyperlink ref="L22" r:id="rId2" xr:uid="{9C285480-F81F-4682-9604-00F4D315104D}"/>
+    <hyperlink ref="L26" r:id="rId3" xr:uid="{E9C41835-8BA2-4A5E-8AB4-2D43876466F9}"/>
+    <hyperlink ref="L27" r:id="rId4" xr:uid="{8A8F3646-6287-423E-A3D8-DBD5BE36AF9B}"/>
+    <hyperlink ref="L29" r:id="rId5" xr:uid="{6587EB35-C376-4242-93BB-6A8895FEFA35}"/>
+    <hyperlink ref="L31" r:id="rId6" xr:uid="{395F8615-662F-4E62-A339-941AC787E526}"/>
+    <hyperlink ref="L36" r:id="rId7" xr:uid="{7B3AC151-AEB6-430F-81F8-8B3779EEB22C}"/>
+    <hyperlink ref="L37" r:id="rId8" xr:uid="{64B7D00B-F86A-490B-A9E6-E4BA1A4AE92A}"/>
+    <hyperlink ref="L33" r:id="rId9" xr:uid="{63BAFD34-ACFF-4855-800B-960ED0DAA834}"/>
+    <hyperlink ref="L9" r:id="rId10" xr:uid="{3D17522C-0289-422B-8C2D-EA5F7600C11F}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{6A18A58A-F873-4649-8EA0-9FA2FD1C9ADC}"/>
+    <hyperlink ref="L13" r:id="rId12" xr:uid="{9FC9F0F7-1412-4727-8053-976750794FF2}"/>
+    <hyperlink ref="L3" r:id="rId13" xr:uid="{81CEF689-B9BA-4E22-B50E-2EA9745D54F6}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{F776F22F-D34C-48E7-A0AB-A7FBFC43B69F}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{2EC55328-0FE4-4D08-883D-55227F134B8E}"/>
+    <hyperlink ref="L7" r:id="rId16" xr:uid="{77324ED2-F10D-4A3B-821F-1AE5B1428A74}"/>
+    <hyperlink ref="L6" r:id="rId17" xr:uid="{2754A60A-969C-47CF-A16F-129F4059AC08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
